--- a/kakao-plusfriend-autoreply/src/main/webapp/doc/kakao플러스친구 테이블 정리.xlsx
+++ b/kakao-plusfriend-autoreply/src/main/webapp/doc/kakao플러스친구 테이블 정리.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13875" windowHeight="4350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20850" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>txt_id</t>
   </si>
@@ -85,6 +86,46 @@
   </si>
   <si>
     <t>필터링 내용</t>
+  </si>
+  <si>
+    <t>cmd_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weatherInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commandList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_kakao_commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,6 +188,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,11 +484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -606,6 +655,56 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
@@ -633,6 +732,11 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">

--- a/kakao-plusfriend-autoreply/src/main/webapp/doc/kakao플러스친구 테이블 정리.xlsx
+++ b/kakao-plusfriend-autoreply/src/main/webapp/doc/kakao플러스친구 테이블 정리.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="21630" windowHeight="10620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14430" windowHeight="10470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명" sheetId="1" r:id="rId1"/>
     <sheet name="컬럼명" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P30"/>
+  <oleSize ref="A1:I29"/>
 </workbook>
 </file>
 
@@ -168,10 +168,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -573,25 +573,25 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -599,25 +599,25 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -625,13 +625,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
@@ -639,28 +639,28 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3"/>
